--- a/laboratorio/lab3.xlsx
+++ b/laboratorio/lab3.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonnomada/Documents/Cursos 2025/BELATRIX-EXCEL/curso/laboratorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D41B6-6313-B140-9B24-64A6FFA04F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B29EB4-58E2-C04E-9C98-9C0C100D357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{4DEAC989-7007-CF40-8197-F630010E57D3}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{4DEAC989-7007-CF40-8197-F630010E57D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Producto</t>
   </si>
@@ -51,6 +77,27 @@
   </si>
   <si>
     <t>Marías</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de Precio</t>
+  </si>
+  <si>
+    <t>Suma de cantidad</t>
+  </si>
+  <si>
+    <t>Suma de Subtotal</t>
+  </si>
+  <si>
+    <t>Fórmula1</t>
   </si>
 </sst>
 </file>
@@ -86,8 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,12 +157,142 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alan Badillo Salas" refreshedDate="45875.673340046298" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{92C1EE23-5C54-B549-8717-9528FF6B630D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Producto" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Coca Cola"/>
+        <s v="Gansito"/>
+        <s v="Marías"/>
+        <s v="Fórmula1" f="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Precio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.5" maxValue="21.5"/>
+    </cacheField>
+    <cacheField name="cantidad" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="65"/>
+    </cacheField>
+    <cacheField name="Subtotal" numFmtId="0" formula="Precio *cantidad" databaseField="0"/>
+  </cacheFields>
+  <calculatedItems count="1">
+    <calculatedItem formula="Producto['Coca Cola'] +Producto[Gansito]">
+      <pivotArea cacheIndex="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </calculatedItem>
+  </calculatedItems>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
+  <r>
+    <x v="0"/>
+    <n v="21.5"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="16.5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="19.8"/>
+    <n v="65"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{807288AD-CC3D-4D4D-9598-2E78594741ED}" name="TablaDinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F13:I18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item f="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Suma de Precio" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Suma de cantidad" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Subtotal" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC8FCF8-6873-7A4B-BC9E-8607C3560B4E}" name="Tabla1" displayName="Tabla1" ref="B3:C6" totalsRowShown="0">
-  <autoFilter ref="B3:C6" xr:uid="{DFC8FCF8-6873-7A4B-BC9E-8607C3560B4E}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFC8FCF8-6873-7A4B-BC9E-8607C3560B4E}" name="Tabla1" displayName="Tabla1" ref="B3:D6" totalsRowShown="0">
+  <autoFilter ref="B3:D6" xr:uid="{DFC8FCF8-6873-7A4B-BC9E-8607C3560B4E}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{381CBC09-F230-3548-9A66-95C40B245AC7}" name="Producto"/>
     <tableColumn id="2" xr3:uid="{31E184C7-0360-C149-B27C-B1E268908B14}" name="Precio"/>
+    <tableColumn id="3" xr3:uid="{179FFF57-9DB6-6044-8FC6-81530E86C79E}" name="cantidad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -433,50 +615,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACE5752-7BB6-BD48-8DDD-41DA6705845B}">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B3:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <v>19.8</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="F6" t="str" cm="1">
+        <f t="array" ref="F6:F8">INDEX(Tabla1[Producto], 0)</f>
+        <v>Coca Cola</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6:H8">Tabla1[Precio] * Tabla1[cantidad]</f>
+        <v>494.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <v>Gansito</v>
+      </c>
+      <c r="H7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <v>Marías</v>
+      </c>
+      <c r="H8">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3">
+        <v>494.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="H16" s="3">
+        <v>65</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3">
+        <v>33</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3">
+        <v>95.8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>131</v>
+      </c>
+      <c r="I18" s="3">
+        <v>12549.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA62771-CC94-5641-AA64-08394225A3DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/laboratorio/lab3.xlsx
+++ b/laboratorio/lab3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonnomada/Documents/Cursos 2025/BELATRIX-EXCEL/curso/laboratorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B29EB4-58E2-C04E-9C98-9C0C100D357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CEC88E-0D96-D24A-B05D-42276DCD853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{4DEAC989-7007-CF40-8197-F630010E57D3}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{4DEAC989-7007-CF40-8197-F630010E57D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
   <dimension ref="B3:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
